--- a/biology/Zoologie/Grallariidae/Grallariidae.xlsx
+++ b/biology/Zoologie/Grallariidae/Grallariidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Grallariidae sont une famille de passereaux constituée de quatre genres et d'une cinquantaine espèces de grallaires. Ces espèces étaient auparavant classées dans la famille des Formicariidae. En septembre 2021, il est démontré que le nom correct pour désigner la famille devrait être Myrmotheridae en raison du principe de priorité[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Grallariidae sont une famille de passereaux constituée de quatre genres et d'une cinquantaine espèces de grallaires. Ces espèces étaient auparavant classées dans la famille des Formicariidae. En septembre 2021, il est démontré que le nom correct pour désigner la famille devrait être Myrmotheridae en raison du principe de priorité.
 </t>
         </is>
       </c>
@@ -511,16 +523,87 @@
           <t>Taxons subordonnés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>D'après la classification de référence du Congrès ornithologique international :
-Liste des genres
-Grallaria Vieillot, 1816
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après la classification de référence du Congrès ornithologique international :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Grallariidae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grallariidae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxons subordonnés</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Grallaria Vieillot, 1816
 Grallaricula P.L. Sclater, 1858
 Hylopezus Ridgway, 1909
-Myrmothera Vieillot, 1816
-Liste des espèces
-D'après la classification de référence du Congrès ornithologique international  (version 5.2, 2015)[2] :
+Myrmothera Vieillot, 1816</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Grallariidae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grallariidae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxons subordonnés</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>D'après la classification de référence du Congrès ornithologique international  (version 5.2, 2015) :
 Grallaria squamigera – Grallaire ondée
 Grallaria gigantea – Grallaire géante
 Grallaria excelsa – Grande Grallaire
